--- a/classification/droptc/drone-sbert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/drone-sbert/unfreeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829145073890686</v>
+        <v>0.9894481897354126</v>
       </c>
     </row>
     <row r="3">
@@ -511,14 +511,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9118503928184509</v>
+        <v>0.99770587682724</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9382598400115967</v>
+        <v>0.9976268410682678</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9966629147529602</v>
+        <v>0.9867616891860962</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9966138005256653</v>
+        <v>0.9977007508277893</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9966856837272644</v>
+        <v>0.9976875782012939</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.996692419052124</v>
+        <v>0.9976933598518372</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4518999457359314</v>
+        <v>0.9289398193359375</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966979026794434</v>
+        <v>0.9976782202720642</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9552963376045227</v>
+        <v>0.9977086782455444</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9967047572135925</v>
+        <v>0.9977185726165771</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9966723918914795</v>
+        <v>0.9896752238273621</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9826052188873291</v>
+        <v>0.9977103471755981</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9775935411453247</v>
+        <v>0.9977097511291504</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.996708869934082</v>
+        <v>0.9894191026687622</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9329344630241394</v>
+        <v>0.9976930022239685</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9756017327308655</v>
+        <v>0.9693397283554077</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8292694687843323</v>
+        <v>0.9977074861526489</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9893950819969177</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9800549745559692</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9167736172676086</v>
+        <v>0.9976614713668823</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9966511130332947</v>
+        <v>0.9886647462844849</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.974984884262085</v>
+        <v>0.997719943523407</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9967207312583923</v>
+        <v>0.9892617464065552</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.982795774936676</v>
+        <v>0.8854315876960754</v>
       </c>
     </row>
     <row r="27">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9453577995300293</v>
+        <v>0.9977201819419861</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9976930022239685</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9966863989830017</v>
+        <v>0.9971702694892883</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9977046847343445</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9976977705955505</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9966115355491638</v>
+        <v>0.9886500835418701</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9966490864753723</v>
+        <v>0.989354133605957</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9966953992843628</v>
+        <v>0.8799189329147339</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9812316298484802</v>
+        <v>0.9976946711540222</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9752750396728516</v>
+        <v>0.988701343536377</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9966840147972107</v>
+        <v>0.9977061748504639</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9966302514076233</v>
+        <v>0.9977280497550964</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9966884255409241</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="40">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9966676831245422</v>
+        <v>0.9655013680458069</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9966124892234802</v>
+        <v>0.989473283290863</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9824802279472351</v>
+        <v>0.9977273344993591</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.975762665271759</v>
+        <v>0.9977295994758606</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9823974370956421</v>
+        <v>0.9977166652679443</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9887141585350037</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9966895580291748</v>
+        <v>0.9802439212799072</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9963002800941467</v>
+        <v>0.7210749983787537</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9967150688171387</v>
+        <v>0.9977018237113953</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9966436624526978</v>
+        <v>0.9976850748062134</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8266433477401733</v>
+        <v>0.9977231621742249</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9976875782012939</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.997698962688446</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9801019430160522</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9966352581977844</v>
+        <v>0.9282134175300598</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9966995120048523</v>
+        <v>0.9799930453300476</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9708002209663391</v>
+        <v>0.9976902008056641</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965787529945374</v>
+        <v>0.9976981282234192</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9965407252311707</v>
+        <v>0.9498735666275024</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9963862895965576</v>
+        <v>0.9976917505264282</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9764344692230225</v>
+        <v>0.9892877340316772</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9967247843742371</v>
+        <v>0.9976937174797058</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9825909733772278</v>
+        <v>0.9886100292205811</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.982720673084259</v>
+        <v>0.9893307685852051</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9966697096824646</v>
+        <v>0.9977092742919922</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9965511560440063</v>
+        <v>0.9885713458061218</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966775178909302</v>
+        <v>0.9886800050735474</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9848529100418091</v>
+        <v>0.99770587682724</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9894960522651672</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9966795444488525</v>
+        <v>0.9977201819419861</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9965894222259521</v>
+        <v>0.9886857271194458</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9966921806335449</v>
+        <v>0.9802439212799072</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9966788291931152</v>
+        <v>0.9977152347564697</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9976953864097595</v>
       </c>
     </row>
     <row r="75">
@@ -2527,14 +2527,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9964170455932617</v>
+        <v>0.9876198768615723</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9783245921134949</v>
+        <v>0.9977269768714905</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.974806547164917</v>
+        <v>0.9977225661277771</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9976690411567688</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9966781139373779</v>
+        <v>0.9892691969871521</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.982560932636261</v>
+        <v>0.9886261820793152</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6487963795661926</v>
+        <v>0.9977260231971741</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9966936111450195</v>
+        <v>0.9976733326911926</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9966999888420105</v>
+        <v>0.9977096319198608</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9565236568450928</v>
+        <v>0.9487985372543335</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9966791868209839</v>
+        <v>0.9892617464065552</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9967026114463806</v>
+        <v>0.94696444272995</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9976929426193237</v>
       </c>
     </row>
     <row r="89">
@@ -2919,14 +2919,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9966939687728882</v>
+        <v>0.9652590751647949</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9977052807807922</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9977059364318848</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9977263808250427</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9966393709182739</v>
+        <v>0.9976933598518372</v>
       </c>
     </row>
     <row r="94">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9244282841682434</v>
+        <v>0.9977141618728638</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9823355078697205</v>
+        <v>0.9887444972991943</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8099486827850342</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9954828023910522</v>
+        <v>0.9696663618087769</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9824329614639282</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8120047450065613</v>
+        <v>0.9887260794639587</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9976868629455566</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9977293610572815</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.996684730052948</v>
+        <v>0.9799930453300476</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9977180957794189</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9966006875038147</v>
+        <v>0.9740997552871704</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9967014193534851</v>
+        <v>0.9976667165756226</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9967327117919922</v>
+        <v>0.9977295994758606</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9564133882522583</v>
+        <v>0.5477775931358337</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.967770516872406</v>
+        <v>0.9618646502494812</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9967008233070374</v>
+        <v>0.9977351427078247</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9779143333435059</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9966691136360168</v>
+        <v>0.9496849775314331</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9977182149887085</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9695396423339844</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9757009148597717</v>
+        <v>0.9977307915687561</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9312236309051514</v>
+        <v>0.9976937174797058</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9558624625205994</v>
+        <v>0.9976636171340942</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9967114925384521</v>
+        <v>0.997723400592804</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9965975880622864</v>
+        <v>0.9976922273635864</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9966805577278137</v>
+        <v>0.9977198243141174</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9967266321182251</v>
+        <v>0.9976957440376282</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8575327396392822</v>
+        <v>0.9977113008499146</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9976819753646851</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9821743965148926</v>
+        <v>0.997671902179718</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9966920614242554</v>
+        <v>0.9886415600776672</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9591958522796631</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9964710474014282</v>
+        <v>0.9460643529891968</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9803211688995361</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9967086315155029</v>
+        <v>0.9977071285247803</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9443448781967163</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9961899518966675</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9966492056846619</v>
+        <v>0.9977136850357056</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9966968297958374</v>
+        <v>0.989550769329071</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9967142343521118</v>
+        <v>0.9886647462844849</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6451403498649597</v>
+        <v>0.997710108757019</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9892041087150574</v>
+        <v>0.9977180957794189</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9814565181732178</v>
+        <v>0.9509390592575073</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.957895040512085</v>
+        <v>0.9977097511291504</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9967017769813538</v>
+        <v>0.9977293610572815</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9966475367546082</v>
+        <v>0.9863365888595581</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.996677041053772</v>
+        <v>0.9977136850357056</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9775474071502686</v>
+        <v>0.9977242350578308</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9967137575149536</v>
+        <v>0.9977083206176758</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9976595640182495</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9966505169868469</v>
+        <v>0.9976986050605774</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9976971745491028</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9769022464752197</v>
+        <v>0.9886754751205444</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.996665894985199</v>
+        <v>0.9977237582206726</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.997714638710022</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9713028073310852</v>
+        <v>0.9068890810012817</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9695974588394165</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9886916875839233</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.997719943523407</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9965988993644714</v>
+        <v>0.9977359771728516</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9967076778411865</v>
+        <v>0.997714638710022</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9967167973518372</v>
+        <v>0.9977163076400757</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9911649823188782</v>
+        <v>0.9892691969871521</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.988701343536377</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.99669349193573</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9775236845016479</v>
+        <v>0.9976875782012939</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.996650755405426</v>
+        <v>0.9807471632957458</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9966981410980225</v>
+        <v>0.9867603778839111</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9776346683502197</v>
+        <v>0.9977060556411743</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9826651811599731</v>
+        <v>0.9872081875801086</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9966662526130676</v>
+        <v>0.9977056384086609</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9966422319412231</v>
+        <v>0.9977043271064758</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9967318773269653</v>
+        <v>0.9977371692657471</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9826921224594116</v>
+        <v>0.9977009892463684</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9303323030471802</v>
+        <v>0.9977322816848755</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9966327548027039</v>
+        <v>0.988488495349884</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9966757297515869</v>
+        <v>0.9976875782012939</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9966244697570801</v>
+        <v>0.9886543750762939</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9966737031936646</v>
+        <v>0.9977071285247803</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9966579675674438</v>
+        <v>0.9977148771286011</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.996565043926239</v>
+        <v>0.9695878028869629</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9977036118507385</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9766876101493835</v>
+        <v>0.9977230429649353</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9976999163627625</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9976832866668701</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9967018961906433</v>
+        <v>0.9977141618728638</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9966375827789307</v>
+        <v>0.9977153539657593</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9977177381515503</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7210216522216797</v>
+        <v>0.988701343536377</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9966666102409363</v>
+        <v>0.9977038502693176</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6617893576622009</v>
+        <v>0.9976782202720642</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9780910611152649</v>
+        <v>0.9976961016654968</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8920709490776062</v>
+        <v>0.9892706871032715</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9966543912887573</v>
+        <v>0.9646908044815063</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9967195391654968</v>
+        <v>0.9977224469184875</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9558508396148682</v>
+        <v>0.9891873002052307</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9964839220046997</v>
+        <v>0.9694962501525879</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9966986775398254</v>
+        <v>0.9802439212799072</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9773579835891724</v>
+        <v>0.9977200627326965</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9966816306114197</v>
+        <v>0.9976924657821655</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.996712327003479</v>
+        <v>0.9886754751205444</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9878993630409241</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9770747423171997</v>
+        <v>0.9977256655693054</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8252741694450378</v>
+        <v>0.988605797290802</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9553600549697876</v>
+        <v>0.9886543750762939</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7293189167976379</v>
+        <v>0.9977014660835266</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9977226853370667</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9886647462844849</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.997730553150177</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9777318835258484</v>
+        <v>0.9977248311042786</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9830195307731628</v>
+        <v>0.9977046847343445</v>
       </c>
     </row>
     <row r="206">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9966842532157898</v>
+        <v>0.4397842884063721</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9966956377029419</v>
+        <v>0.9976898431777954</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8182406425476074</v>
+        <v>0.9886795878410339</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9966769218444824</v>
+        <v>0.8986003994941711</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9967126846313477</v>
+        <v>0.9976880550384521</v>
       </c>
     </row>
   </sheetData>
